--- a/database/weather_1_excel.xlsx
+++ b/database/weather_1_excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">rainy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.a</t>
   </si>
 </sst>
 </file>
@@ -56,6 +59,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -144,7 +148,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -217,15 +221,15 @@
         <v>6</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>43650</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>34</v>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>23</v>
